--- a/期末專案/rawdata/國立臺灣大學.xlsx
+++ b/期末專案/rawdata/國立臺灣大學.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:Q70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,6 +437,76 @@
           <t>採計科目</t>
         </is>
       </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>國文</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>英文</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>數A</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>數B</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>社會</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>自然</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>英聽</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>數甲</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>物理</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>化學</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>生物</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>歷史</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>地理</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>公民</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -454,6 +524,31 @@
           <t>英文(1.25)、數甲(1.25)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N2" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -471,6 +566,21 @@
           <t>國文(1.00)、英文(1.50)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +598,31 @@
           <t>國文(1.00)、英文(1.50)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -505,6 +640,31 @@
           <t>國文(1.50)、英文(1.25)、數B(1.00)、歷史(1.25)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -522,6 +682,31 @@
           <t>國文(1.50)、英文(1.50)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -539,6 +724,26 @@
           <t>國文(1.25)、英文(2.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -556,6 +761,26 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -573,6 +798,26 @@
           <t>國文(1.25)、英文(1.25)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q9" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -590,6 +835,31 @@
           <t>國文(1.00)、英文(1.00)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -607,6 +877,31 @@
           <t>國文(1.50)、英文(1.50)、數B(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -624,6 +919,31 @@
           <t>國文(1.00)、英文(1.00)、數B(1.00)、歷史(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q12" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -641,6 +961,31 @@
           <t>國文(1.00)、英文(1.00)、數B(1.00)、歷史(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -658,6 +1003,31 @@
           <t>國文(1.00)、英文(1.00)、數B(1.00)、歷史(1.00)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -675,6 +1045,31 @@
           <t>國文(1.25)、英文(1.25)、數B(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -692,6 +1087,31 @@
           <t>國文(1.00)、英文(1.00)、數B(1.00)、歷史(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q16" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -709,6 +1129,31 @@
           <t>國文(1.25)、英文(1.25)、社會(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -726,6 +1171,31 @@
           <t>國文(1.25)、英文(1.25)、社會(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -743,6 +1213,31 @@
           <t>國文(1.25)、英文(1.25)、社會(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -760,6 +1255,21 @@
           <t>英文(1.50)、自然(1.00)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -777,6 +1287,31 @@
           <t>英文(1.00)、數A(1.00)、數甲(1.00)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -794,6 +1329,21 @@
           <t>英文(2.00)、數甲(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -811,6 +1361,21 @@
           <t>國文(1.00)、英文(1.50)、數甲(1.50)</t>
         </is>
       </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -828,6 +1393,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -845,6 +1435,31 @@
           <t>英文(1.00)、數A(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -862,6 +1477,26 @@
           <t>英文(1.00)、數甲(1.25)、物理(1.25)、化學(1.25)</t>
         </is>
       </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -879,6 +1514,26 @@
           <t>英文(1.00)、數甲(2.00)、物理(2.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -896,6 +1551,26 @@
           <t>英文(1.00)、數甲(1.25)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -913,6 +1588,26 @@
           <t>英文(1.00)、數甲(1.50)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -930,6 +1625,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -947,6 +1667,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -964,6 +1709,26 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -981,6 +1746,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -998,6 +1788,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1015,6 +1830,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.25)、物理(1.25)、化學(1.25)</t>
         </is>
       </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1032,6 +1872,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1049,6 +1914,21 @@
           <t>數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1066,6 +1946,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1083,6 +1988,26 @@
           <t>英文(1.00)、數甲(1.50)、物理(1.50)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1100,6 +2025,31 @@
           <t>英文(1.00)、數A(1.50)、數甲(1.50)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1117,6 +2067,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1134,6 +2109,31 @@
           <t>英文(1.00)、數A(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1151,6 +2151,26 @@
           <t>數甲(1.00)、物理(1.50)、化學(1.50)、生物(2.00)</t>
         </is>
       </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1168,6 +2188,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)</t>
         </is>
       </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1185,6 +2230,26 @@
           <t>國文(1.25)、英文(2.00)、數B(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1202,6 +2267,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1219,6 +2309,31 @@
           <t>國文(1.00)、英文(1.00)、數A(1.00)、化學(1.00)、生物(1.50)</t>
         </is>
       </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1236,6 +2351,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.50)、生物(1.50)</t>
         </is>
       </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1253,6 +2393,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1270,6 +2435,26 @@
           <t>英文(1.00)、數A(1.00)、自然(2.00)、數甲(2.00)</t>
         </is>
       </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1287,6 +2472,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.25)、生物(1.25)</t>
         </is>
       </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1304,6 +2514,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1321,6 +2556,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1338,6 +2598,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1355,6 +2640,26 @@
           <t>國文(1.25)、英文(1.50)、數甲(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1372,6 +2677,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1389,6 +2719,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N57" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1406,6 +2761,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N58" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1423,6 +2803,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(2.00)、生物(2.00)</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1440,6 +2845,31 @@
           <t>國文(1.00)、英文(1.00)、數甲(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N60" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1457,6 +2887,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1474,6 +2929,31 @@
           <t>英文(1.00)、數甲(1.00)、物理(1.00)、化學(1.00)、生物(1.00)</t>
         </is>
       </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="N62" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1491,6 +2971,31 @@
           <t>國文(1.50)、英文(1.50)、數A(1.50)、歷史(1.00)、地理(1.00)</t>
         </is>
       </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1508,6 +3013,26 @@
           <t>國文(1.00)、英文(1.25)、數B(1.25)、公民(1.25)</t>
         </is>
       </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1525,6 +3050,21 @@
           <t>數B(1.00)、地理(1.25)、公民(1.00)</t>
         </is>
       </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1542,6 +3082,26 @@
           <t>英文(1.50)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q66" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1559,6 +3119,31 @@
           <t>國文(1.25)、英文(1.50)、數A(1.25)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q67" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1576,6 +3161,31 @@
           <t>英文(1.00)、數A(1.00)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q68" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1593,6 +3203,31 @@
           <t>英文(2.00)、數A(1.00)、歷史(1.00)、地理(1.00)、公民(1.00)</t>
         </is>
       </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="Q69" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1608,6 +3243,21 @@
       <c r="C70" t="inlineStr">
         <is>
           <t>英文(1.50)、數A(2.00)、公民(1.00)</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="Q70" t="inlineStr">
+        <is>
+          <t>1.00</t>
         </is>
       </c>
     </row>
